--- a/data/BPS_FH_Dataset/02/chords.xlsx
+++ b/data/BPS_FH_Dataset/02/chords.xlsx
@@ -415,8 +415,8 @@
   </sheetPr>
   <dimension ref="A1:O459"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A304" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J324" activeCellId="0" sqref="J324"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -427,7 +427,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>4</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="B187" s="1" t="n">
         <v>558</v>
